--- a/DNBR-HRT Model_Yuchuan Fan.xlsx
+++ b/DNBR-HRT Model_Yuchuan Fan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uflorida-my.sharepoint.com/personal/y_fan_ufl_edu/Documents/Publications/5_Nonlinear model/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fanyuchuan/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="188" documentId="13_ncr:1_{BC50B612-2926-8845-8216-534197AB0C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D86656E-C390-2F41-8E6B-51E896D06D7E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE338B3F-FD5A-D74D-8E2A-7C7CE1B268E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="860" windowWidth="23220" windowHeight="13980" activeTab="3" xr2:uid="{296F6278-5154-9244-9959-6EF48129C519}"/>
+    <workbookView xWindow="2560" yWindow="1240" windowWidth="23220" windowHeight="13980" xr2:uid="{296F6278-5154-9244-9959-6EF48129C519}"/>
   </bookViews>
   <sheets>
     <sheet name="Nrd (mg N L-1 m-1)" sheetId="1" r:id="rId1"/>
@@ -2500,9 +2500,6 @@
     </r>
   </si>
   <si>
-    <t>Choose the "solver" in the top bar. Set up the objective parameter as E10 or H9, and choose the "Min", then choose the changing variable cells from the purple cells from E7 to E9 or H7 to H8. At last, click the "Solve".</t>
-  </si>
-  <si>
     <r>
       <t>NRR</t>
     </r>
@@ -2539,6 +2536,9 @@
       </rPr>
       <t>90%</t>
     </r>
+  </si>
+  <si>
+    <t>Clik the "Data" in the top bar, check if there is a function icon called "Solver" at the rigth panel. If not, please click "Analysis Tools" to choose this function. Then set up the objective parameter as E10 or H9, and choose the "Min", then choose the changing variable cells from the purple cells from E7 to E9 or H7 to H8. At last, click the "Solve".</t>
   </si>
 </sst>
 </file>
@@ -2763,21 +2763,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2795,6 +2780,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -18889,16 +18889,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>63921</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>139901</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>123452</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>60527</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>666220</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>17318</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>725752</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>195912</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -19524,16 +19524,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>811634</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>165302</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>66567</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>199169</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>575733</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>51450</xdr:rowOff>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>136117</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -20079,10 +20079,6 @@
 </c:userShapes>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -20382,8 +20378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{451B4113-1F98-584D-A84A-7464F6565BE5}">
   <dimension ref="A1:R67"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:E11"/>
+    <sheetView tabSelected="1" zoomScale="69" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20396,69 +20392,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="2" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
     </row>
     <row r="3" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
     </row>
     <row r="6" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="D6" s="24" t="s">
+      <c r="B6" s="20"/>
+      <c r="D6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="24"/>
-      <c r="G6" s="23" t="s">
+      <c r="E6" s="19"/>
+      <c r="G6" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="23"/>
-      <c r="J6" s="21" t="s">
+      <c r="H6" s="18"/>
+      <c r="J6" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="20" t="s">
+      <c r="K6" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
     </row>
     <row r="7" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -20479,15 +20475,15 @@
       <c r="H7" s="11">
         <v>29.151035564251568</v>
       </c>
-      <c r="J7" s="21"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
@@ -20508,15 +20504,15 @@
       <c r="H8" s="11">
         <v>1.2452965536522629</v>
       </c>
-      <c r="J8" s="21"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
@@ -20538,15 +20534,15 @@
         <f t="array" ref="H9">SUMPRODUCT((G18:G205-E18:E205)^2)</f>
         <v>16.660195700850661</v>
       </c>
-      <c r="J9" s="21"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
     </row>
     <row r="10" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="D10" s="9" t="s">
@@ -20557,7 +20553,7 @@
         <v>20.460818402826035</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H10" s="8">
         <f>9*$H$8</f>
@@ -20566,73 +20562,84 @@
     </row>
     <row r="11" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D11" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E11" s="8">
         <f>-LN(1/10/$E$8)/$E$9</f>
         <v>6.0306430116038161</v>
       </c>
-      <c r="J11" s="21" t="s">
+      <c r="J11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="K11" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
+      <c r="K11" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
     </row>
     <row r="12" spans="1:18" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J12" s="21"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="J13" s="21"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+    </row>
+    <row r="13" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J13" s="16"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
     </row>
     <row r="14" spans="1:18" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J14" s="21"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="J15" s="16"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
     </row>
     <row r="16" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="21" t="s">
         <v>5</v>
       </c>
       <c r="F16" s="5" t="s">
@@ -20641,13 +20648,22 @@
       <c r="G16" s="6" t="s">
         <v>14</v>
       </c>
+      <c r="J16" s="16"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
     </row>
     <row r="17" spans="1:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="15"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="21"/>
       <c r="F17" s="2" t="s">
         <v>6</v>
       </c>
@@ -21491,21 +21507,21 @@
       <c r="D67" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="N9PTnq0SakLRHYELz8J8/6acgHQg8fqeGWRb5xX8qa76gwN4o5440+MczPOsn98VgmhHIVoeOTq2hoRVqrsYbA==" saltValue="EbKzxEMLSrFDYYbh8QU8lg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="x7OH/bo3B0ylLxmNSO7WCB5kzUWro7V5St+reMx1YXrQTA9o7IZq2AzJMF5BEgIXJJj+2bN2njgatIRbUbO0qw==" saltValue="Vj3Gbtgu9/CDCwR83Gy8iw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="13">
-    <mergeCell ref="K6:R9"/>
-    <mergeCell ref="J6:J9"/>
-    <mergeCell ref="K11:R14"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="A1:G4"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="A6:B6"/>
     <mergeCell ref="E16:E17"/>
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="K6:R9"/>
+    <mergeCell ref="J6:J9"/>
+    <mergeCell ref="A1:G4"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="J11:J16"/>
+    <mergeCell ref="K11:R16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -21519,7 +21535,7 @@
   <dimension ref="A1:R67"/>
   <sheetViews>
     <sheetView zoomScale="64" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="J11" sqref="J11:R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21532,69 +21548,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="2" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
     </row>
     <row r="3" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
     </row>
     <row r="6" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="D6" s="24" t="s">
+      <c r="B6" s="20"/>
+      <c r="D6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="24"/>
-      <c r="G6" s="23" t="s">
+      <c r="E6" s="19"/>
+      <c r="G6" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="23"/>
-      <c r="J6" s="21" t="s">
+      <c r="H6" s="18"/>
+      <c r="J6" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="20" t="s">
+      <c r="K6" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
     </row>
     <row r="7" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -21615,15 +21631,15 @@
       <c r="H7" s="11">
         <v>29.009002190665676</v>
       </c>
-      <c r="J7" s="21"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
@@ -21644,15 +21660,15 @@
       <c r="H8" s="11">
         <v>1.2295019786620411</v>
       </c>
-      <c r="J8" s="21"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
@@ -21674,15 +21690,15 @@
         <f t="array" ref="H9">SUMPRODUCT((G18:G205-E18:E205)^2)</f>
         <v>2.6447867200553952E-2</v>
       </c>
-      <c r="J9" s="21"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
     </row>
     <row r="10" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="D10" s="9" t="s">
@@ -21693,7 +21709,7 @@
         <v>3.2012516387746076E-2</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H10" s="8">
         <f>0.9*AVERAGE(C18:C200)*$H$8/($H$7*$B$7-0.9*AVERAGE(C18:C200))</f>
@@ -21702,73 +21718,84 @@
     </row>
     <row r="11" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D11" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E11" s="8">
         <f>-LN(($E$7*$B$7-0.9*AVERAGE($C$18:$C$200))/$E$7/$B$7/$E$8)/$E$9</f>
         <v>4.6114888967506502</v>
       </c>
-      <c r="J11" s="21" t="s">
+      <c r="J11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="K11" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
+      <c r="K11" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
     </row>
     <row r="12" spans="1:18" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J12" s="21"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
     </row>
     <row r="13" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J13" s="21"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
     </row>
     <row r="14" spans="1:18" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J14" s="21"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="J15" s="16"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
     </row>
     <row r="16" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="21" t="s">
         <v>23</v>
       </c>
       <c r="F16" s="5" t="s">
@@ -21777,13 +21804,22 @@
       <c r="G16" s="6" t="s">
         <v>14</v>
       </c>
+      <c r="J16" s="16"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="19"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="15"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="21"/>
       <c r="F17" s="5" t="s">
         <v>24</v>
       </c>
@@ -22627,20 +22663,21 @@
       <c r="D67" s="8"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="sh1CXpKtWG7sh4c3P0Uz51PPgHlZXokFQWrNjKx7bcrWgTjBgv+H804mNtGDHTkgQiDwvik0421WRvGXc3u4Rg==" saltValue="ZJNbDYKQRTa7XHGg+wHE0Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="13">
+    <mergeCell ref="J6:J9"/>
+    <mergeCell ref="K6:R9"/>
+    <mergeCell ref="A1:G4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="J11:J16"/>
+    <mergeCell ref="K11:R16"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="E16:E17"/>
-    <mergeCell ref="J6:J9"/>
-    <mergeCell ref="K6:R9"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="A1:G4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="K11:R14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -22653,8 +22690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76D52D78-C3B0-8840-AD2F-D507F4F8AC0D}">
   <dimension ref="A1:R67"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView topLeftCell="A5" zoomScale="75" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22667,69 +22704,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="2" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
     </row>
     <row r="3" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
     </row>
     <row r="6" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="D6" s="24" t="s">
+      <c r="B6" s="20"/>
+      <c r="D6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="24"/>
-      <c r="F6" s="23" t="s">
+      <c r="E6" s="19"/>
+      <c r="F6" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="23"/>
-      <c r="J6" s="21" t="s">
+      <c r="G6" s="18"/>
+      <c r="J6" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="20" t="s">
+      <c r="K6" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
     </row>
     <row r="7" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -22750,15 +22787,15 @@
       <c r="G7" s="11">
         <v>29.151035564251568</v>
       </c>
-      <c r="J7" s="21"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
@@ -22779,15 +22816,15 @@
       <c r="G8" s="11">
         <v>1.2452965536522629</v>
       </c>
-      <c r="J8" s="21"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
@@ -22809,15 +22846,15 @@
         <f t="array" ref="G9">SUMPRODUCT((G18:G205-E18:E205)^2)</f>
         <v>153.66022328206228</v>
       </c>
-      <c r="J9" s="21"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
@@ -22837,70 +22874,81 @@
     <row r="11" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="27"/>
       <c r="B11" s="26"/>
-      <c r="J11" s="21" t="s">
+      <c r="J11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="K11" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
+      <c r="K11" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
     </row>
     <row r="12" spans="1:18" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E12" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="J12" s="21"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
     </row>
     <row r="13" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J13" s="21"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
     </row>
     <row r="14" spans="1:18" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J14" s="21"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="J15" s="16"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
     </row>
     <row r="16" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="21" t="s">
         <v>25</v>
       </c>
       <c r="F16" s="5" t="s">
@@ -22909,13 +22957,22 @@
       <c r="G16" s="6" t="s">
         <v>14</v>
       </c>
+      <c r="J16" s="16"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
     </row>
     <row r="17" spans="1:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="A17" s="19"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="15"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="21"/>
       <c r="F17" s="5" t="s">
         <v>27</v>
       </c>
@@ -23759,10 +23816,14 @@
       <c r="D67" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="h6xz0YGuje8IjWLlpo55zC906DjP4xNXyHbxvihD+tacOa6mTg+gJwGgJ2wrB55A0jFA4UhhUIj/TdUJoFOALA==" saltValue="O/mtYn1i9/n6OFF0LaympA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="F4RJEY3KZlbNk/G3CovshwFHDJmuq7T7du/8Q1jtwuy82RoHm3IsuWBghFITWI/WCW6K+wHEvc6DzTaR3HpY8g==" saltValue="iyIAThtsu6wCKXtbdSKLJQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="15">
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="K11:R14"/>
+    <mergeCell ref="K6:R9"/>
+    <mergeCell ref="A1:G4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="J6:J9"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="C16:C17"/>
@@ -23770,12 +23831,8 @@
     <mergeCell ref="E16:E17"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="K6:R9"/>
-    <mergeCell ref="A1:G4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="J6:J9"/>
+    <mergeCell ref="J11:J16"/>
+    <mergeCell ref="K11:R16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -23787,7 +23844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81EF07BF-CEA0-1542-AD12-123234482D25}">
   <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+    <sheetView zoomScale="75" workbookViewId="0">
       <selection sqref="A1:G4"/>
     </sheetView>
   </sheetViews>
@@ -23801,48 +23858,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="2" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
     </row>
     <row r="3" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
     </row>
     <row r="6" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="25"/>
+      <c r="B6" s="20"/>
     </row>
     <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
@@ -23891,31 +23948,31 @@
     <row r="13" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="16" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="21" t="s">
         <v>25</v>
       </c>
       <c r="F16" s="28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="19"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="15"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="21"/>
       <c r="F17" s="28"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
